--- a/notebooks/ANTXR2/input/ANTXR2_HFS_individuals.xlsx
+++ b/notebooks/ANTXR2/input/ANTXR2_HFS_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/ANTXR2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADFF8E7-D1F1-4A48-8488-82DBA48E2BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA50B7E3-E73D-764A-95D6-C1D5C9E6753F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="28720" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
